--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4864FA-F7C2-974F-A323-8913B3121F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE504A6C-5198-AF44-B552-046D7BE5BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46400" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="470">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -974,6 +974,462 @@
   </si>
   <si>
     <t>정현호</t>
+  </si>
+  <si>
+    <t>athboy3@gmail.com</t>
+  </si>
+  <si>
+    <t>안태현</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>김도훈</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>sojeongy39@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소정</t>
+  </si>
+  <si>
+    <t>molly7624@naver.com</t>
+  </si>
+  <si>
+    <t>변재은</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>sallylee12300@gmail.com</t>
+  </si>
+  <si>
+    <t>이상은</t>
+  </si>
+  <si>
+    <t>bravemw2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>태민우</t>
+  </si>
+  <si>
+    <t>blleuey@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>tvkim0122@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT</t>
+  </si>
+  <si>
+    <t>김태빈</t>
+  </si>
+  <si>
+    <t>ymun018@naver.com</t>
+  </si>
+  <si>
+    <t>문윤식</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>mukyx00@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>엄찬우</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>tpdls1323@naver.com</t>
+  </si>
+  <si>
+    <t>장세인</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>good011218@naver.com</t>
+  </si>
+  <si>
+    <t>최승혁</t>
+  </si>
+  <si>
+    <t>jkv0125@gmail.com</t>
+  </si>
+  <si>
+    <t>조경빈</t>
+  </si>
+  <si>
+    <t>juh0611@naver.com</t>
+  </si>
+  <si>
+    <t>신주희</t>
+  </si>
+  <si>
+    <t>digiphk12@naver.com</t>
+  </si>
+  <si>
+    <t>박현규</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>bee0831@naver.com</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>gusdud062256@gmail.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>679qmg@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>se0870@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>kimtaejin3882@gmail.com</t>
+  </si>
+  <si>
+    <t>김태진</t>
+  </si>
+  <si>
+    <t>minge0407@naver.com</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>llyrlyrll@naver.com</t>
+  </si>
+  <si>
+    <t>이예린</t>
+  </si>
+  <si>
+    <t>implibra88@gmail.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>20232565@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이지안</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>odh4743@naver.com</t>
+  </si>
+  <si>
+    <t>오동훈</t>
+  </si>
+  <si>
+    <t>ridsigdog@gmail.com</t>
+  </si>
+  <si>
+    <t>박건민</t>
+  </si>
+  <si>
+    <t>jmc0122@naver.com</t>
+  </si>
+  <si>
+    <t>정원혁</t>
+  </si>
+  <si>
+    <t>yenaridia@naver.com</t>
+  </si>
+  <si>
+    <t>최예나</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>kilucas45@gmail.com</t>
+  </si>
+  <si>
+    <t>김동건</t>
+  </si>
+  <si>
+    <t>abc810852@gmail.com</t>
+  </si>
+  <si>
+    <t>심지환</t>
+  </si>
+  <si>
+    <t>su12ki24@gmail.com</t>
+  </si>
+  <si>
+    <t>박지숙</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>amyson0622@naver.com</t>
+  </si>
+  <si>
+    <t>손진아</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>sujongchoe8@gmail.com</t>
+  </si>
+  <si>
+    <t>최수종</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>cheis11@naver.com</t>
+  </si>
+  <si>
+    <t>김찬호</t>
+  </si>
+  <si>
+    <t>jeongsuyeon749@naver.com</t>
+  </si>
+  <si>
+    <t>정수연</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>aoa0226@naver.com</t>
+  </si>
+  <si>
+    <t>강문원</t>
+  </si>
+  <si>
+    <t>sjb081235@naver.com</t>
+  </si>
+  <si>
+    <t>신종범</t>
+  </si>
+  <si>
+    <t>q2jqmf@naver.com</t>
+  </si>
+  <si>
+    <t>원주현</t>
+  </si>
+  <si>
+    <t>donghyunkim0404@naver.com</t>
+  </si>
+  <si>
+    <t>사회학과</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>a01031309196@gmail.com</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>chlgpals2507@naver.com</t>
+  </si>
+  <si>
+    <t>최혜민</t>
+  </si>
+  <si>
+    <t>total7146@gmail.com</t>
+  </si>
+  <si>
+    <t>안정하</t>
   </si>
 </sst>
 </file>
@@ -1247,11 +1703,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5977,6 +6433,2999 @@
         <v>41</v>
       </c>
     </row>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
+        <v>45237.979874409721</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="1">
+        <v>20222616</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
+        <v>45238.000607326394</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D117" s="1">
+        <v>20212708</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
+        <v>45238.002559120374</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="1">
+        <v>20182889</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>45238.018627581019</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" s="1">
+        <v>20222987</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>45238.064207361109</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" s="1">
+        <v>20211516</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>45238.164647395832</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D121" s="1">
+        <v>20231057</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>45238.368223483798</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" s="1">
+        <v>20222908</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>45238.433366689816</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="1">
+        <v>20226143</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>45238.47420892361</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D124" s="1">
+        <v>20203257</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>45238.527993206022</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D125" s="1">
+        <v>20203235</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
+        <v>45238.532271111108</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D126" s="1">
+        <v>20203314</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2">
+        <v>45238.544301851856</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="1">
+        <v>20235160</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
+        <v>45238.567511712958</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="1">
+        <v>20236778</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>45238.600574884258</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" s="1">
+        <v>20236231</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>45238.612907499999</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D130" s="1">
+        <v>20202547</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>45238.636387210645</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20211526</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>45238.644775856483</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="1">
+        <v>20233245</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>45238.646458449075</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133" s="1">
+        <v>20181702</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>45238.68095574074</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" s="1">
+        <v>20236230</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>45238.69257378472</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D135" s="1">
+        <v>20205261</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>45238.709210069443</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D136" s="1">
+        <v>20212135</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>45238.744775127314</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" s="1">
+        <v>20221051</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>45238.792670034723</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="1">
+        <v>20162617</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>45238.793984340278</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D139" s="1">
+        <v>20233734</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>45238.839293067125</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D140" s="1">
+        <v>20202554</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>45238.860232071762</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141" s="1">
+        <v>20232636</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>45238.884503124995</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D142" s="1">
+        <v>20205246</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>45238.894716875002</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143" s="1">
+        <v>20222750</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>45238.921333148144</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D144" s="1">
+        <v>20236740</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>45238.938811770829</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D145" s="1">
+        <v>20232563</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>45238.954139398149</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="1">
+        <v>20232939</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>45238.966768784725</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D147" s="1">
+        <v>20212126</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>45238.978206319443</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20232338</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>45238.983829317134</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20233955</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>45239.004701122685</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20232428</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>45239.0433581713</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20233711</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>45239.049120254625</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20236760</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>45239.08423842593</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20232565</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>45239.084936087966</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20232426</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>45239.125896412035</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20202340</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>45239.173720983796</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20202816</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>45239.414881307872</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20173057</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>45239.41785824074</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20201634</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>45239.434712534727</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20172428</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>45239.467547916662</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20236604</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>45239.470141377315</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20235201</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>45239.512601064816</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20232821</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>45239.572031273143</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20233728</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>45239.577986944445</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20233410</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>45239.586226967593</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20173728</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>45239.635195428244</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20223825</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>45239.668348321764</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20233409</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>45239.670610104164</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20233726</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>45239.705754120369</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20236742</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>45239.751391608792</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20215154</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>45239.774673125001</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20183831</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>45239.845443865735</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20232134</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>45239.86752969907</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20235219</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>45239.880742337962</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20222637</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>45239.910568136576</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20235111</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>45239.935264780092</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20222977</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>45239.940141273153</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20234121</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>45239.953866145835</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20195143</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>45239.972015983796</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20236290</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>45239.995998067126</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20202513</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>45240.023627835646</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20235102</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>45240.033968692129</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20201601</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>45240.060183020832</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20232334</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>45240.080575810185</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20202735</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>45240.083004062501</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20232204</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>45240.10655725695</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20232609</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>45240.107353657411</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20181735</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>45240.167383148146</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20223722</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE504A6C-5198-AF44-B552-046D7BE5BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E61D9-6F2F-AE4C-B3A4-2F6A3E458D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46400" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="529">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1430,6 +1430,183 @@
   </si>
   <si>
     <t>안정하</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>clearrin55@gmail.com</t>
+  </si>
+  <si>
+    <t>김예린</t>
+  </si>
+  <si>
+    <t>sshs0206@naver.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>ajw20040114@gmail.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전한호 </t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>kirokmom@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 법학과</t>
+  </si>
+  <si>
+    <t>김병관</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>ghdfo7882@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>김홍래</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@naver.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
   </si>
 </sst>
 </file>
@@ -1703,11 +1880,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G195" sqref="G195"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9426,6 +9603,1154 @@
         <v>24</v>
       </c>
     </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>45240.378555520831</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20225116</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>45240.403307384258</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20171078</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>45240.468591851852</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20202638</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>45240.506065393522</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20203001</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>45240.508023680552</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20211509</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>45240.544946261572</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20236174</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>45240.572723831021</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20236210</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>45240.580103310189</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20233424</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>45240.580891851852</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20234118</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>45240.61687849537</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20235202</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>45240.641883182871</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20236239</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>45240.708267789349</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20232842</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>45240.716026296301</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20195157</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>45240.729525138886</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20194132</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>45240.732638182875</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20232113</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>45240.753793993055</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20192709</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>45240.775154525458</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20233525</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>45240.852021932871</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20192614</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>45240.867489201388</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20217125</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>45240.882491388889</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20206619</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>45240.895282002311</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20233962</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>45240.905610439819</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20232817</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>45240.913145787039</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20217142</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>45240.940017627319</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20193531</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>45240.999116678242</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20231004</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>45241.059961967592</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20231203</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>45241.064472372687</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20231075</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>45241.101642662034</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20233051</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E61D9-6F2F-AE4C-B3A4-2F6A3E458D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178A548-A6AF-F64C-B54E-C460B1FB9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46400" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="564">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1607,6 +1607,111 @@
   </si>
   <si>
     <t>최아린</t>
+  </si>
+  <si>
+    <t>hyu4511@gmail.com</t>
+  </si>
+  <si>
+    <t>유영후</t>
+  </si>
+  <si>
+    <t>dldusgh0908@gmail.com</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>cmsgood99@gmail.com</t>
+  </si>
+  <si>
+    <t>곽동희</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>a01045477730@gmail.com</t>
+  </si>
+  <si>
+    <t>박윤재</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>tnwls03270327@gmail.com</t>
+  </si>
+  <si>
+    <t>권수진</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>bil916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>정윤재</t>
   </si>
 </sst>
 </file>
@@ -1880,11 +1985,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N216"/>
+  <dimension ref="A1:N233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10751,6 +10856,703 @@
         <v>41</v>
       </c>
     </row>
+    <row r="217" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>45241.489307534721</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20231060</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>45241.502050462965</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20232738</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>45241.51371856482</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20231610</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>45241.520929629631</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20233905</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>45241.529192777773</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20232706</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>45241.542853530089</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20222970</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>45241.552389386576</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20233326</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>45241.567075636573</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20232329</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>45241.595311331017</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20171605</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>45241.635194699076</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20192703</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>45241.656754374999</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20231537</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>45241.658840810182</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20232719</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>45241.692873206019</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20236301</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>45241.704502511573</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20236300</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>45241.712368425928</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20196621</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>45241.74642372685</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20212707</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>45241.750125613427</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20216750</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178A548-A6AF-F64C-B54E-C460B1FB9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA424B66-3E18-7C48-A9D7-433DAA618F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46400" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="622">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1712,6 +1712,180 @@
   </si>
   <si>
     <t>정윤재</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmail.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사학전공 </t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>dltndus004@naver.com</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>사회</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>justin0304299@naver.com</t>
+  </si>
+  <si>
+    <t>박기현</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
+  </si>
+  <si>
+    <t>ke64276065@gmail.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>2003lsa@naver.com</t>
+  </si>
+  <si>
+    <t>이수아</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>tlsfkdhs0321@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생명과학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">신라온 </t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>donghyun4147@naver.com</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>srhst1130@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>윤하은</t>
+  </si>
+  <si>
+    <t>syn_1234@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>사영노</t>
+  </si>
+  <si>
+    <t>bin85288@daum.net</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
   </si>
 </sst>
 </file>
@@ -1985,11 +2159,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N233"/>
+  <dimension ref="A1:N260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
+      <selection pane="bottomLeft" activeCell="P239" sqref="P239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11553,6 +11727,1113 @@
         <v>41</v>
       </c>
     </row>
+    <row r="234" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>45241.763982384262</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20213827</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>45241.800586226847</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20235214</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>45241.80398405093</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20236635</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>45241.824077534722</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20231007</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>45241.838840405093</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20211061</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2">
+        <v>45241.862333229168</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20203214</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="2">
+        <v>45241.867493611113</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20221054</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>45241.89080721065</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20181088</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="2">
+        <v>45241.900401030092</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20232627</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>45241.916355023146</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20222213</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="2">
+        <v>45241.925730462965</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20203639</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>45241.933986203701</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20212727</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="2">
+        <v>45241.976377060186</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20213515</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>45241.981310995368</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20226176</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>45241.989242083335</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20223705</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>45242.001441597225</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20223000</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="2">
+        <v>45242.008158449069</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20235171</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>45242.032356539348</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20212986</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="2">
+        <v>45242.040664502318</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20233522</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="2">
+        <v>45242.04348054398</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20192120</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>45242.06049783565</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20193401</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="2">
+        <v>45242.077110462968</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20191530</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="2">
+        <v>45242.082651550925</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D256" s="1">
+        <v>20191066</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>45242.085716458329</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D257" s="1">
+        <v>20205184</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="2">
+        <v>45242.112742777783</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D258" s="1">
+        <v>20231016</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="2">
+        <v>45242.193757986111</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D259" s="1">
+        <v>20233824</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="2">
+        <v>45242.248809976852</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D260" s="1">
+        <v>20202741</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA424B66-3E18-7C48-A9D7-433DAA618F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6AE17-F43B-F842-92E0-0180675895FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46400" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48640" yWindow="2920" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="826">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1886,6 +1886,618 @@
   </si>
   <si>
     <t>이준서</t>
+  </si>
+  <si>
+    <t>wjddmsqjqtk@naver.com</t>
+  </si>
+  <si>
+    <t>신정은</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>duddndywjd@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">송영우 </t>
+  </si>
+  <si>
+    <t>030223cho@naver.com</t>
+  </si>
+  <si>
+    <t>조성진</t>
+  </si>
+  <si>
+    <t>jinwon4725@naver.com</t>
+  </si>
+  <si>
+    <t>장진원</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>wjdgus2251@naver.com</t>
+  </si>
+  <si>
+    <t>이정현</t>
+  </si>
+  <si>
+    <t>kimkitty040510@gmail.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>dmskr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>오은탁</t>
+  </si>
+  <si>
+    <t>djcjfakstp@gmail.com</t>
+  </si>
+  <si>
+    <t>융합인재학부</t>
+  </si>
+  <si>
+    <t>어철</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
+  </si>
+  <si>
+    <t>20236207@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간호학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">권기영 </t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>smilerina1@naver.com</t>
+  </si>
+  <si>
+    <t>조예린</t>
+  </si>
+  <si>
+    <t>kimcylove@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
+  </si>
+  <si>
+    <t>ysa8659@gmail.com</t>
+  </si>
+  <si>
+    <t>조성목</t>
+  </si>
+  <si>
+    <t>hanyong0302@gmail.com</t>
+  </si>
+  <si>
+    <t>생명과학</t>
+  </si>
+  <si>
+    <t>김한용</t>
+  </si>
+  <si>
+    <t>areana1053@naver.com</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>drmiso526@naver.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진헤린</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>20217134@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>장효경</t>
+  </si>
+  <si>
+    <t>vlxjvos2514@naver.com</t>
+  </si>
+  <si>
+    <t>홍성은</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>t26a1@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이</t>
+  </si>
+  <si>
+    <t>신동한</t>
+  </si>
+  <si>
+    <t>equi236@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일본학과</t>
+  </si>
+  <si>
+    <t>박철웅</t>
+  </si>
+  <si>
+    <t>lju5422@naver.com</t>
+  </si>
+  <si>
+    <t>임준섭</t>
+  </si>
+  <si>
+    <t>wnyuna04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주윤아 </t>
+  </si>
+  <si>
+    <t>scw0922@naver.com</t>
+  </si>
+  <si>
+    <t>신채원</t>
+  </si>
+  <si>
+    <t>dayoun2004@naver.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학과</t>
+  </si>
+  <si>
+    <t>이다윤</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>choeunland@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>송민혁</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>bb2611323@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능</t>
+  </si>
+  <si>
+    <t>방유빈</t>
+  </si>
+  <si>
+    <t>wjdalsdl9391@naver.com</t>
+  </si>
+  <si>
+    <t>엄정민</t>
+  </si>
+  <si>
+    <t>changyu0202@naver.com</t>
+  </si>
+  <si>
+    <t>이찬규</t>
+  </si>
+  <si>
+    <t>jio3222019@gmail.com</t>
+  </si>
+  <si>
+    <t>서상욱</t>
+  </si>
+  <si>
+    <t>yesssssssun@naver.com</t>
+  </si>
+  <si>
+    <t>노선우</t>
+  </si>
+  <si>
+    <t>kswon115@naver.com</t>
+  </si>
+  <si>
+    <t>김시원</t>
+  </si>
+  <si>
+    <t>changyw6729@naver.com</t>
+  </si>
+  <si>
+    <t>장연욱</t>
+  </si>
+  <si>
+    <t>yura5635@naver.com</t>
+  </si>
+  <si>
+    <t>이유라</t>
+  </si>
+  <si>
+    <t>rbdms0619@gmail.com</t>
+  </si>
+  <si>
+    <t>김규은</t>
+  </si>
+  <si>
+    <t>teo48253@gmail.com</t>
+  </si>
+  <si>
+    <t>이수혁</t>
+  </si>
+  <si>
+    <t>p51008085@gmail.com</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>haohao873@naver.com</t>
+  </si>
+  <si>
+    <t>안지연</t>
+  </si>
+  <si>
+    <t>kimsemin3@naver.com</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>kimbitna7890@naver.com</t>
+  </si>
+  <si>
+    <t>김빛나</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>ghkwls336@naver.com</t>
+  </si>
+  <si>
+    <t>장다온</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종욱</t>
+  </si>
+  <si>
+    <t>luis0815@naver.com</t>
+  </si>
+  <si>
+    <t>양지민</t>
+  </si>
+  <si>
+    <t>sharkyminzz@gmail.com</t>
+  </si>
+  <si>
+    <t>의예</t>
+  </si>
+  <si>
+    <t>서민형</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>han7434380@naver.com</t>
+  </si>
+  <si>
+    <t>한진우</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>rlaek1116@naver.com</t>
+  </si>
+  <si>
+    <t>김다정</t>
+  </si>
+  <si>
+    <t>hyeseongi81@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜성</t>
+  </si>
+  <si>
+    <t>kimdo4524@naver.com</t>
+  </si>
+  <si>
+    <t>kimyoung4808@gmail.com</t>
+  </si>
+  <si>
+    <t>김승영</t>
+  </si>
+  <si>
+    <t>0227jsh@naver.com</t>
+  </si>
+  <si>
+    <t>장서희</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>mng437@naver.com</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>rkgus8286@naver.com</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>hshs0104746@naver.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>ghys1837@naver.com</t>
+  </si>
+  <si>
+    <t>안영서</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>taeho4756@naver.com</t>
+  </si>
+  <si>
+    <t>조태호</t>
+  </si>
+  <si>
+    <t>hyunbin7379@gmail.com</t>
+  </si>
+  <si>
+    <t>정현빈</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>nanadiana222@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>조희진</t>
+  </si>
+  <si>
+    <t>20192988@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>heeyeon_02@naver.com</t>
+  </si>
+  <si>
+    <t>이희연</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>choims9064@gmail.com</t>
+  </si>
+  <si>
+    <t>최민서</t>
+  </si>
+  <si>
+    <t>yoo040128@naver.com</t>
+  </si>
+  <si>
+    <t>유승주</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>p.pla1226@gmail.com</t>
+  </si>
+  <si>
+    <t>박성곤</t>
+  </si>
+  <si>
+    <t>choihyobin0128@naver.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>최효빈</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +2549,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2159,11 +2772,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N260"/>
+  <dimension ref="A1:N354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P239" sqref="P239"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12834,6 +13447,3860 @@
         <v>24</v>
       </c>
     </row>
+    <row r="261" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="2">
+        <v>45242.346621909717</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D261" s="1">
+        <v>20221714</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="2">
+        <v>45242.35546100694</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D262" s="1">
+        <v>20217037</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="2">
+        <v>45242.355763321757</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D263" s="1">
+        <v>20223721</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>45242.41357365741</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D264" s="1">
+        <v>20231235</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="2">
+        <v>45242.415891203702</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D265" s="1">
+        <v>20232355</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="2">
+        <v>45242.441602939813</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D266" s="1">
+        <v>20223208</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="2">
+        <v>45242.445676898147</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D267" s="1">
+        <v>20233634</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>45242.447344155094</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D268" s="1">
+        <v>20183639</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="2">
+        <v>45242.450702812501</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" s="1">
+        <v>20235199</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="2">
+        <v>45242.487342592591</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D270" s="1">
+        <v>20217149</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="2">
+        <v>45242.527728032408</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D271" s="1">
+        <v>20232707</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="2">
+        <v>45242.52817853009</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D272" s="1">
+        <v>20226622</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="2">
+        <v>45242.548295277782</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D273" s="1">
+        <v>20233430</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="2">
+        <v>45242.555554652776</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D274" s="1">
+        <v>20218001</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="2">
+        <v>45242.561723900464</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="1">
+        <v>20235208</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="2">
+        <v>45242.567422523149</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D276" s="1">
+        <v>20196515</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="2">
+        <v>45242.580876111111</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D277" s="1">
+        <v>20192319</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="2">
+        <v>45242.588910960651</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D278" s="1">
+        <v>20213606</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="2">
+        <v>45242.604889305556</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D279" s="1">
+        <v>20236207</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="2">
+        <v>45242.623141400458</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D280" s="3">
+        <v>20222561</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="2">
+        <v>45242.640442592594</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D281" s="1">
+        <v>20236293</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="2">
+        <v>45242.663783425931</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D282" s="1">
+        <v>20212320</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="2">
+        <v>45242.666462372683</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D283" s="1">
+        <v>20232101</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="2">
+        <v>45242.669907650459</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D284" s="1">
+        <v>20223537</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="2">
+        <v>45242.706032743052</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D285" s="1">
+        <v>20233513</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="2">
+        <v>45242.711220219906</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D286" s="1">
+        <v>20231502</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="2">
+        <v>45242.713485324071</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D287" s="1">
+        <v>20192310</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="2">
+        <v>45242.717210011571</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D288" s="1">
+        <v>20232327</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="2">
+        <v>45242.720252766201</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D289" s="1">
+        <v>20236781</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="2">
+        <v>45242.722709305555</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D290" s="1">
+        <v>20232960</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="2">
+        <v>45242.723892997688</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D291" s="1">
+        <v>20217081</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="2">
+        <v>45242.725543703702</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D292" s="1">
+        <v>20232555</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="2">
+        <v>45242.726541006945</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D293" s="1">
+        <v>20217134</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="2">
+        <v>45242.7355306713</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D294" s="1">
+        <v>20203739</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="2">
+        <v>45242.739313333332</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D295" s="1">
+        <v>20233847</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="2">
+        <v>45242.740637442126</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296" s="1">
+        <v>20232909</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="2">
+        <v>45242.74354664352</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D297" s="1">
+        <v>20221629</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="2">
+        <v>45242.758267349534</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D298" s="1">
+        <v>20193331</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="2">
+        <v>45242.775482685189</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D299" s="1">
+        <v>20181617</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="2">
+        <v>45242.791152754631</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D300" s="1">
+        <v>20192348</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="2">
+        <v>45242.797845543981</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D301" s="1">
+        <v>20236294</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="2">
+        <v>45242.803620312501</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D302" s="1">
+        <v>20236256</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="2">
+        <v>45242.820091458329</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D303" s="1">
+        <v>20236752</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="2">
+        <v>45242.822594756944</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D304" s="1">
+        <v>20193328</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="2">
+        <v>45242.823171064811</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D305" s="1">
+        <v>20181054</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="2">
+        <v>45242.826998668985</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D306" s="1">
+        <v>20201627</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K306" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="2">
+        <v>45242.828143726852</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D307" s="1">
+        <v>20236729</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="2">
+        <v>45242.829537233796</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D308" s="1">
+        <v>20231617</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="2">
+        <v>45242.832934791666</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D309" s="1">
+        <v>20232630</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="2">
+        <v>45242.843092233801</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D310" s="1">
+        <v>20232827</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="2">
+        <v>45242.846466006944</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D311" s="1">
+        <v>20233922</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="2">
+        <v>45242.846695844906</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D312" s="1">
+        <v>20232930</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K312" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="2">
+        <v>45242.846709513891</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D313" s="1">
+        <v>20232573</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L313" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M313" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="2">
+        <v>45242.8595584375</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D314" s="1">
+        <v>20203637</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K314" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N314" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="2">
+        <v>45242.875133368056</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D315" s="1">
+        <v>20213803</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K315" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L315" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="2">
+        <v>45242.877684444444</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D316" s="1">
+        <v>20233420</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K316" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="2">
+        <v>45242.8802827662</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D317" s="1">
+        <v>20236726</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K317" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N317" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="2">
+        <v>45242.88243125</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D318" s="1">
+        <v>20231525</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N318" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="2">
+        <v>45242.882834664357</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D319" s="1">
+        <v>20233607</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K319" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="2">
+        <v>45242.895464895832</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D320" s="1">
+        <v>20222609</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="2">
+        <v>45242.89927386574</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D321" s="1">
+        <v>20233529</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K321" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L321" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N321" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="2">
+        <v>45242.905261585649</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D322" s="1">
+        <v>20236287</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K322" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L322" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N322" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="2">
+        <v>45242.905301099541</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D323" s="1">
+        <v>20232753</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K323" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L323" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N323" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="2">
+        <v>45242.9177675463</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="1">
+        <v>20235170</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K324" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N324" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="2">
+        <v>45242.923920277783</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D325" s="1">
+        <v>20232336</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K325" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M325" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="2">
+        <v>45242.932360243052</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D326" s="1">
+        <v>20236136</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N326" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="2">
+        <v>45242.93525678241</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D327" s="1">
+        <v>20236295</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M327" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="2">
+        <v>45242.935622199075</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D328" s="1">
+        <v>20224152</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K328" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N328" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="2">
+        <v>45242.936062708337</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D329" s="1">
+        <v>20217095</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K329" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N329" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="2">
+        <v>45242.937219780091</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D330" s="1">
+        <v>20236289</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N330" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="2">
+        <v>45242.939824849542</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D331" s="1">
+        <v>20232704</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K331" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N331" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="2">
+        <v>45242.940575069442</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D332" s="1">
+        <v>20224137</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K332" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M332" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="2">
+        <v>45242.943589328701</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D333" s="1">
+        <v>20232407</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="2">
+        <v>45242.950137557869</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D334" s="1">
+        <v>20233709</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M334" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="2">
+        <v>45242.954472129626</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D335" s="1">
+        <v>20233843</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M335" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="2">
+        <v>45242.95598510417</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D336" s="1">
+        <v>20215173</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L336" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N336" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="2">
+        <v>45242.965001180557</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D337" s="1">
+        <v>20232105</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L337" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M337" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="2">
+        <v>45242.967716967592</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D338" s="1">
+        <v>20233729</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M338" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="2">
+        <v>45242.971040856486</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D339" s="1">
+        <v>20212601</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="2">
+        <v>45242.9722271875</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D340" s="1">
+        <v>20232639</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K340" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M340" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="2">
+        <v>45242.973416018518</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D341" s="1">
+        <v>20213939</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N341" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="2">
+        <v>45242.973766111114</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D342" s="1">
+        <v>20232302</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M342" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="2">
+        <v>45242.97423842593</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D343" s="1">
+        <v>20213732</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M343" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="2">
+        <v>45242.98159059028</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D344" s="1">
+        <v>20233036</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M344" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="2">
+        <v>45242.982509039357</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D345" s="1">
+        <v>20233966</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L345" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N345" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="2">
+        <v>45242.983383020837</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D346" s="1">
+        <v>20225261</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="2">
+        <v>45242.989621921297</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D347" s="1">
+        <v>20192988</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N347" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="2">
+        <v>45242.990896087962</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D348" s="1">
+        <v>20231536</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M348" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="2">
+        <v>45242.99266398148</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D349" s="1">
+        <v>20217159</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N349" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="2">
+        <v>45242.999182465283</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D350" s="1">
+        <v>20236297</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="2">
+        <v>45243.000770104161</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D351" s="1">
+        <v>20232622</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L351" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="2">
+        <v>45243.011056111107</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D352" s="1">
+        <v>20195270</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="2">
+        <v>45243.016446249996</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D353" s="1">
+        <v>20236127</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="2">
+        <v>45243.035002962963</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D354" s="1">
+        <v>20233058</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6AE17-F43B-F842-92E0-0180675895FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DB04EB-3854-C247-BEFE-048E76F804F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48640" yWindow="2920" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="891">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2498,6 +2498,201 @@
   </si>
   <si>
     <t>최효빈</t>
+  </si>
+  <si>
+    <t>spungseon@gmail.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>sexytaegeun@gmail.com</t>
+  </si>
+  <si>
+    <t>성태근</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>kimhongik03@gmail.com</t>
+  </si>
+  <si>
+    <t>김홍읻</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>20225169@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>kddong99@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
   </si>
 </sst>
 </file>
@@ -2772,11 +2967,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N354"/>
+  <dimension ref="A1:N385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D309" sqref="D309"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F393" sqref="F393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17301,6 +17496,1277 @@
         <v>41</v>
       </c>
     </row>
+    <row r="355" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="2">
+        <v>45243.14610456019</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D355" s="1">
+        <v>20236219</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="2">
+        <v>45243.477564814813</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D356" s="1">
+        <v>20162715</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L356" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="2">
+        <v>45243.562245266206</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D357" s="1">
+        <v>20232118</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K357" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L357" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M357" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="2">
+        <v>45243.566598206016</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D358" s="1">
+        <v>20232632</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K358" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M358" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="2">
+        <v>45243.573211817129</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D359" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L359" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M359" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="2">
+        <v>45243.574345451387</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D360" s="1">
+        <v>20235105</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L360" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M360" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="2">
+        <v>45243.645976134256</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D361" s="1">
+        <v>20236639</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K361" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L361" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M361" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="2">
+        <v>45243.806373506945</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D362" s="1">
+        <v>20226423</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K362" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L362" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="2">
+        <v>45243.837989143518</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D363" s="1">
+        <v>20225169</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L363" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N363" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="2">
+        <v>45243.869498865737</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D364" s="1">
+        <v>20232803</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K364" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L364" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M364" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="2">
+        <v>45243.877227453704</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D365" s="1">
+        <v>20181205</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L365" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M365" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="2">
+        <v>45243.909013854165</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D366" s="1">
+        <v>20192233</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K366" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L366" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M366" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="2">
+        <v>45243.94407430556</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D367" s="1">
+        <v>20201606</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K367" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L367" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M367" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="2">
+        <v>45243.953633715282</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D368" s="1">
+        <v>20233256</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K368" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L368" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N368" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="2">
+        <v>45243.993901979164</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D369" s="1">
+        <v>20233644</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K369" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L369" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N369" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="2">
+        <v>45243.996490763893</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D370" s="1">
+        <v>20236224</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K370" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L370" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M370" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="2">
+        <v>45244.006904074078</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D371" s="1">
+        <v>20236771</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K371" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L371" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M371" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="2">
+        <v>45244.034531863421</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D372" s="1">
+        <v>20233608</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K372" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L372" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M372" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="2">
+        <v>45244.167699861107</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D373" s="1">
+        <v>20201217</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K373" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L373" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M373" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="2">
+        <v>45244.434135451389</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D374" s="1">
+        <v>20202972</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K374" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L374" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N374" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="2">
+        <v>45244.456138611116</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D375" s="1">
+        <v>20233934</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K375" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L375" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N375" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="2">
+        <v>45244.479472685183</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D376" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N376" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="2">
+        <v>45244.487832777777</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D377" s="1">
+        <v>20202750</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K377" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L377" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M377" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="2">
+        <v>45244.583621724538</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D378" s="1">
+        <v>20233826</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K378" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M378" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="2">
+        <v>45244.608765972225</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D379" s="1">
+        <v>20226429</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K379" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N379" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="2">
+        <v>45244.925268935185</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D380" s="1">
+        <v>20232303</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N380" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="2">
+        <v>45244.934482222219</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D381" s="1">
+        <v>20193344</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K381" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N381" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="2">
+        <v>45244.934665462963</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D382" s="1">
+        <v>20233906</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K382" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N382" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="2">
+        <v>45244.959369259261</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D383" s="1">
+        <v>20221626</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K383" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N383" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="2">
+        <v>45244.993136666671</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D384" s="1">
+        <v>20205265</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K384" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M384" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="2">
+        <v>45245.008631354169</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D385" s="1">
+        <v>20233417</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K385" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M385" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DB04EB-3854-C247-BEFE-048E76F804F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C894C8-AA42-1548-943B-C5140ADDFFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48640" yWindow="2920" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="975">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2693,6 +2693,258 @@
   </si>
   <si>
     <t>이경보</t>
+  </si>
+  <si>
+    <t>se0jin1112@naver.com</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>kim061806@naver.com</t>
+  </si>
+  <si>
+    <t>김윤서</t>
+  </si>
+  <si>
+    <t>choiky0413@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>jeh9599@gmail.com</t>
+  </si>
+  <si>
+    <t>정은혁</t>
+  </si>
+  <si>
+    <t>jongbaep17s@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>박종배</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>phanbe1@naver.com</t>
+  </si>
+  <si>
+    <t>박한비</t>
+  </si>
+  <si>
+    <t>limjs1006@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>임진서</t>
+  </si>
+  <si>
+    <t>hoverdahee@gmail.com</t>
+  </si>
+  <si>
+    <t>김다희</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>yowon0302@gmail.com</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>최요원</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>jiyoon6911@gmail.com</t>
+  </si>
+  <si>
+    <t>미레융합스쿨</t>
+  </si>
+  <si>
+    <t>홍지윤</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>ehdus040127@naver.com</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>lovechan200r@naver.com</t>
+  </si>
+  <si>
+    <t>황예찬</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>xornjsskdwk0902@gmail.com</t>
+  </si>
+  <si>
+    <t>인문학부 사학전공</t>
+  </si>
+  <si>
+    <t>김태민</t>
   </si>
 </sst>
 </file>
@@ -2967,11 +3219,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N385"/>
+  <dimension ref="A1:N425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F393" sqref="F393"/>
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D441" sqref="D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18726,7 +18978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="2">
         <v>45245.008631354169</v>
       </c>
@@ -18765,6 +19017,1646 @@
       </c>
       <c r="M385" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="2">
+        <v>45245.438560324073</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D386" s="1">
+        <v>20233806</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K386" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M386" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="2">
+        <v>45245.449963460647</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D387" s="1">
+        <v>20232508</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K387" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N387" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="2">
+        <v>45245.475765219904</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D388" s="1">
+        <v>20236227</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K388" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N388" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="2">
+        <v>45245.496139814815</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D389" s="1">
+        <v>20236168</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K389" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L389" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M389" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="2">
+        <v>45245.603974317128</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D390" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K390" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L390" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N390" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="2">
+        <v>45245.626907442129</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D391" s="1">
+        <v>20236218</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K391" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L391" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N391" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="2">
+        <v>45245.631921944441</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D392" s="1">
+        <v>20235256</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L392" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M392" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="2">
+        <v>45245.638590752314</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D393" s="1">
+        <v>20226410</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K393" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L393" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M393" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="2">
+        <v>45245.645341655094</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D394" s="1">
+        <v>20235252</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K394" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L394" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M394" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="2">
+        <v>45245.682394664356</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D395" s="1">
+        <v>20236608</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K395" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M395" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="2">
+        <v>45245.686659548606</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D396" s="1">
+        <v>20217069</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K396" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L396" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N396" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="2">
+        <v>45245.695713402776</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D397" s="1">
+        <v>20222409</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M397" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="2">
+        <v>45245.705443923609</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D398" s="1">
+        <v>20231201</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L398" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N398" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="2">
+        <v>45245.74232099537</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D399" s="1">
+        <v>20236244</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N399" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="2">
+        <v>45245.79491005787</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D400" s="1">
+        <v>20236424</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K400" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N400" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>45245.799140451389</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D401" s="1">
+        <v>20233912</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K401" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L401" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N401" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="2">
+        <v>45245.88796015046</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D402" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K402" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L402" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M402" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="2">
+        <v>45245.905203298607</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D403" s="3">
+        <v>20236236</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L403" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N403" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="2">
+        <v>45245.935962789357</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D404" s="1">
+        <v>20221730</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K404" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L404" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N404" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="2">
+        <v>45245.939095219903</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D405" s="1">
+        <v>20233960</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K405" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L405" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N405" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="2">
+        <v>45245.981035104167</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D406" s="1">
+        <v>20236235</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K406" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L406" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M406" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="2">
+        <v>45245.984720567125</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D407" s="1">
+        <v>20232832</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L407" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N407" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="2">
+        <v>45246.044512650464</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D408" s="1">
+        <v>20233050</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K408" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L408" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N408" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="2">
+        <v>45246.053724375</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D409" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K409" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L409" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N409" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="2">
+        <v>45246.067257476854</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D410" s="1">
+        <v>20233322</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M410" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="2">
+        <v>45246.399591099536</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D411" s="1">
+        <v>20202331</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>45246.458383958336</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D412" s="1">
+        <v>20236645</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M412" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>45246.477320254635</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D413" s="1">
+        <v>20202223</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>45246.53639912037</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D414" s="1">
+        <v>20232307</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>45246.541658842594</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D415" s="1">
+        <v>20207091</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="2">
+        <v>45246.597278379631</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D416" s="1">
+        <v>20236646</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="2">
+        <v>45246.635164374995</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D417" s="1">
+        <v>20216258</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M417" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="2">
+        <v>45246.635999293983</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D418" s="1">
+        <v>20235215</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="2">
+        <v>45246.66583435185</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D419" s="1">
+        <v>2026269</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="2">
+        <v>45246.673161481478</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D420" s="1">
+        <v>20234151</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="2">
+        <v>45246.71944818287</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D421" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M421" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="2">
+        <v>45246.765335509263</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D422" s="1">
+        <v>20212837</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N422" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="2">
+        <v>45246.801488171295</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D423" s="1">
+        <v>20231710</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N423" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="2">
+        <v>45246.802018287039</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D424" s="1">
+        <v>20222950</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M424" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="2">
+        <v>45246.845109756949</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D425" s="1">
+        <v>20181027</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M425" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C894C8-AA42-1548-943B-C5140ADDFFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215F1C9-6E29-B54F-AB4A-39E4D1170D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48640" yWindow="2920" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48640" yWindow="2900" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="989">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2945,6 +2945,48 @@
   </si>
   <si>
     <t>김태민</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>minjoo902@naver.com</t>
+  </si>
+  <si>
+    <t>김민주</t>
+  </si>
+  <si>
+    <t>dldmlcks56@naver.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>whgdktlfgdj2@naver.com</t>
+  </si>
+  <si>
+    <t>변용찬</t>
+  </si>
+  <si>
+    <t>vertigojohn95@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
   </si>
 </sst>
 </file>
@@ -3219,11 +3261,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N425"/>
+  <dimension ref="A1:N432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D441" sqref="D441"/>
+      <selection pane="bottomLeft" activeCell="D438" sqref="D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20383,7 +20425,7 @@
         <v>661</v>
       </c>
       <c r="D419" s="1">
-        <v>2026269</v>
+        <v>20236269</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>962</v>
@@ -20657,6 +20699,293 @@
       </c>
       <c r="M425" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="2">
+        <v>45246.878214282406</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D426" s="1">
+        <v>20233303</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L426" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N426" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="2">
+        <v>45246.886681724536</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D427" s="1">
+        <v>20192827</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L427" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M427" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="2">
+        <v>45246.892607256945</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D428" s="1">
+        <v>20173144</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="2">
+        <v>45246.915444039347</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D429" s="1">
+        <v>20236129</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L429" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N429" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>45246.929671562495</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D430" s="1">
+        <v>20222838</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M430" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="2">
+        <v>45247.023828888894</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D431" s="1">
+        <v>20181051</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="2">
+        <v>45247.131740520832</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D432" s="1">
+        <v>20182517</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M432" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215F1C9-6E29-B54F-AB4A-39E4D1170D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B61AD-ECF4-AC4A-BC48-541D5F2E8D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48640" yWindow="2900" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4865" uniqueCount="1010">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2987,6 +2987,69 @@
   </si>
   <si>
     <t>김정후</t>
+  </si>
+  <si>
+    <t>mjh8429@naver.com</t>
+  </si>
+  <si>
+    <t>민지혜</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.con</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>rlaalswl9362@naver.com</t>
+  </si>
+  <si>
+    <t>Ai로봇</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
   </si>
 </sst>
 </file>
@@ -3261,11 +3324,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N432"/>
+  <dimension ref="A1:N442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D438" sqref="D438"/>
+      <selection pane="bottomLeft" activeCell="D441" sqref="D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20988,6 +21051,416 @@
         <v>79</v>
       </c>
     </row>
+    <row r="433" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="2">
+        <v>45247.388827152783</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D433" s="1">
+        <v>20192535</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M433" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="2">
+        <v>45247.399956712965</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D434" s="1">
+        <v>20202355</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N434" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="2">
+        <v>45247.580290138889</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D435" s="1">
+        <v>20236785</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N435" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="2">
+        <v>45247.603381990746</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D436" s="1">
+        <v>20233353</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M436" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="2">
+        <v>45247.625978807875</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D437" s="1">
+        <v>20202992</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M437" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="2">
+        <v>45247.627113888884</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D438" s="1">
+        <v>20232829</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N438" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="2">
+        <v>45247.629952604169</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D439" s="1">
+        <v>20226712</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L439" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N439" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="2">
+        <v>45247.640509965277</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D440" s="1">
+        <v>20163118</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L440" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M440" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="2">
+        <v>45247.641815601848</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D441" s="1">
+        <v>20216289</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N441" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="2">
+        <v>45247.645188518523</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D442" s="1">
+        <v>20212621</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M442" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B61AD-ECF4-AC4A-BC48-541D5F2E8D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6106CA8-E3FA-4E49-A09F-359C06A2D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48640" yWindow="2900" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48620" yWindow="2900" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4865" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="1021">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3050,6 +3050,39 @@
   </si>
   <si>
     <t>박예원</t>
+  </si>
+  <si>
+    <t>kxjenlee@naver.com</t>
+  </si>
+  <si>
+    <t>이제인</t>
+  </si>
+  <si>
+    <t>mid@bdd.sc</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>kutae1228@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 디스플레이 스쿨 / 반도체 전공 </t>
+  </si>
+  <si>
+    <t>구태환</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
   </si>
 </sst>
 </file>
@@ -3324,11 +3357,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N442"/>
+  <dimension ref="A1:N447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D441" sqref="D441"/>
+      <selection pane="bottomLeft" activeCell="D455" sqref="D455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21461,6 +21494,211 @@
         <v>24</v>
       </c>
     </row>
+    <row r="443" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="2">
+        <v>45247.691896018514</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D443" s="1">
+        <v>20226417</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M443" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="2">
+        <v>45247.716322928245</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D444" s="1">
+        <v>20235122</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M444" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="2">
+        <v>45247.735190891202</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D445" s="1">
+        <v>20183301</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M445" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="2">
+        <v>45247.794549074075</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D446" s="1">
+        <v>20233035</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="2">
+        <v>45247.795390983796</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D447" s="1">
+        <v>20233823</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K447" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L447" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M447" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231106.xlsx
+++ b/R/data/quiz231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6106CA8-E3FA-4E49-A09F-359C06A2D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB707F1A-B914-D749-86A2-B17F43760DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48620" yWindow="2900" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5008" uniqueCount="1038">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3083,6 +3083,57 @@
   </si>
   <si>
     <t>안리안</t>
+  </si>
+  <si>
+    <t>jeongseo.kim25@gmail.com</t>
+  </si>
+  <si>
+    <t>김정서</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터 학과</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>hamy7@naver.com</t>
+  </si>
+  <si>
+    <t>이욱항</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
   </si>
 </sst>
 </file>
@@ -3357,11 +3408,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N447"/>
+  <dimension ref="A1:N455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D455" sqref="D455"/>
+      <selection pane="bottomLeft" activeCell="E457" sqref="E457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21699,6 +21750,334 @@
         <v>41</v>
       </c>
     </row>
+    <row r="448" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="2">
+        <v>45247.870015034721</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D448" s="1">
+        <v>20231209</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K448" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L448" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N448" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="2">
+        <v>45247.875441516204</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D449" s="1">
+        <v>20185300</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K449" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L449" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M449" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="2">
+        <v>45247.886389560183</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D450" s="1">
+        <v>20233834</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M450" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="2">
+        <v>45247.890064942127</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D451" s="1">
+        <v>20235188</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K451" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M451" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="2">
+        <v>45247.919477928241</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D452" s="1">
+        <v>20232214</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N452" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="2">
+        <v>45247.95706335648</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D453" s="1">
+        <v>20236764</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N453" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="2">
+        <v>45248.00609826389</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D454" s="1">
+        <v>20182556</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N454" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="2">
+        <v>45248.023332060184</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D455" s="1">
+        <v>20232437</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N455" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
